--- a/data/roles.xlsx
+++ b/data/roles.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E08BB9A-80BA-47DA-83CC-1B97629CB9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Roles" state="visible" r:id="rId4"/>
+    <sheet name="Roles" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -106,14 +110,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -476,11 +480,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -580,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -630,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -680,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -691,10 +700,10 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -730,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -780,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -832,6 +841,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>